--- a/results_of_test/test_3/Fidelity_result_intra_states_q_2_engl_True.xlsx
+++ b/results_of_test/test_3/Fidelity_result_intra_states_q_2_engl_True.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>States</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>ket_2_qubits_entanglement_2</t>
+  </si>
+  <si>
+    <t>ket_2_qubits_3</t>
+  </si>
+  <si>
+    <t>ket_2_qubits_entanglement_3</t>
+  </si>
+  <si>
+    <t>ket_2_qubits_4</t>
+  </si>
+  <si>
+    <t>ket_2_qubits_entanglement_4</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +444,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.000000007913663</v>
+        <v>1.000000003126027</v>
       </c>
       <c r="C2">
-        <v>1.000000005934108</v>
+        <v>1.000000019089406</v>
       </c>
       <c r="D2">
-        <v>7.834105706754656E-09</v>
+        <v>5.67481285568938E-08</v>
       </c>
       <c r="E2">
-        <v>7.167851292061822E-09</v>
+        <v>1.637862469839738E-08</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +461,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.000000006620821</v>
+        <v>0.9999999982844874</v>
       </c>
       <c r="C3">
-        <v>1.000000005882945</v>
+        <v>1.000000015334767</v>
       </c>
       <c r="D3">
-        <v>8.981099074713608E-09</v>
+        <v>6.386702529835343E-08</v>
       </c>
       <c r="E3">
-        <v>7.002937635659208E-09</v>
+        <v>1.570113937456615E-08</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +478,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.000000011368354</v>
+        <v>0.9999999582433435</v>
       </c>
       <c r="C4">
-        <v>1.000000013690256</v>
+        <v>0.9999999917417151</v>
       </c>
       <c r="D4">
-        <v>1.43150696697422E-08</v>
+        <v>1.105972794271373E-07</v>
       </c>
       <c r="E4">
-        <v>1.249545685895974E-08</v>
+        <v>5.763202990399042E-08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +495,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.000000010731593</v>
+        <v>0.9999999516109739</v>
       </c>
       <c r="C5">
-        <v>1.000000010581707</v>
+        <v>0.9999999925939098</v>
       </c>
       <c r="D5">
-        <v>1.379922528771708E-08</v>
+        <v>1.278811356208512E-07</v>
       </c>
       <c r="E5">
-        <v>1.332422875020014E-08</v>
+        <v>5.693663067730746E-08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +512,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1.000000010428427</v>
+        <v>0.9999999126672577</v>
       </c>
       <c r="C6">
-        <v>1.000000010327024</v>
+        <v>0.9999999446074859</v>
       </c>
       <c r="D6">
-        <v>1.465461506526526E-08</v>
+        <v>1.73207814829732E-07</v>
       </c>
       <c r="E6">
-        <v>1.197839429198891E-08</v>
+        <v>1.002984352413504E-07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +529,84 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1.000000007550552</v>
+        <v>0.999999903049388</v>
       </c>
       <c r="C7">
-        <v>1.000000011639559</v>
+        <v>0.9999999406784182</v>
       </c>
       <c r="D7">
-        <v>2.136971426728859E-08</v>
+        <v>1.748299249219495E-07</v>
       </c>
       <c r="E7">
-        <v>1.334083991230129E-08</v>
+        <v>9.899615203091734E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.9999998773940246</v>
+      </c>
+      <c r="C8">
+        <v>0.9999999032820456</v>
+      </c>
+      <c r="D8">
+        <v>1.899166287373169E-07</v>
+      </c>
+      <c r="E8">
+        <v>1.354643017196132E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.9999998714415503</v>
+      </c>
+      <c r="C9">
+        <v>0.9999999016287181</v>
+      </c>
+      <c r="D9">
+        <v>1.958317248602225E-07</v>
+      </c>
+      <c r="E9">
+        <v>1.356367623935478E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.9999998374969721</v>
+      </c>
+      <c r="C10">
+        <v>0.9999998535213765</v>
+      </c>
+      <c r="D10">
+        <v>2.116647251592612E-07</v>
+      </c>
+      <c r="E10">
+        <v>1.687661307946934E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.9999998283681351</v>
+      </c>
+      <c r="C11">
+        <v>0.9999998516323335</v>
+      </c>
+      <c r="D11">
+        <v>2.222432600127248E-07</v>
+      </c>
+      <c r="E11">
+        <v>1.678797116011519E-07</v>
       </c>
     </row>
   </sheetData>
